--- a/MBT_FlightGUI_login/Default.xlsx
+++ b/MBT_FlightGUI_login/Default.xlsx
@@ -181,7 +181,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -192,9 +194,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -516,7 +516,9 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
@@ -534,10 +536,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
